--- a/data/GCP2.xlsx
+++ b/data/GCP2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zkyfile\matlab_program\bias_compensation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Document\MATLAB\bias_compensation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF82B27-DE23-4F19-9B9D-91C0B0146BA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CD2B2-4DBD-4642-9F71-103B645C8EDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>GCP2_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,13 +92,67 @@
   </si>
   <si>
     <t>GCP2_19</t>
+  </si>
+  <si>
+    <t>GCP2_20</t>
+  </si>
+  <si>
+    <t>GCP2_21</t>
+  </si>
+  <si>
+    <t>GCP2_22</t>
+  </si>
+  <si>
+    <t>GCP2_23</t>
+  </si>
+  <si>
+    <t>GCP2_24</t>
+  </si>
+  <si>
+    <t>GCP2_25</t>
+  </si>
+  <si>
+    <t>GCP2_26</t>
+  </si>
+  <si>
+    <t>GCP2_27</t>
+  </si>
+  <si>
+    <t>GCP2_28</t>
+  </si>
+  <si>
+    <t>GCP2_29</t>
+  </si>
+  <si>
+    <t>GCP2_30</t>
+  </si>
+  <si>
+    <t>GCP2_31</t>
+  </si>
+  <si>
+    <t>GCP2_32</t>
+  </si>
+  <si>
+    <t>GCP2_33</t>
+  </si>
+  <si>
+    <t>GCP2_34</t>
+  </si>
+  <si>
+    <t>GCP2_35</t>
+  </si>
+  <si>
+    <t>GCP2_36</t>
+  </si>
+  <si>
+    <t>GCP2_37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +179,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,10 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,19 +492,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="4" width="13.9140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2">
         <v>10220</v>
       </c>
@@ -460,7 +522,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>9677</v>
       </c>
@@ -478,7 +540,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>10101</v>
       </c>
@@ -496,7 +558,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>15552</v>
       </c>
@@ -516,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>3043</v>
       </c>
@@ -536,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5780</v>
       </c>
@@ -556,7 +618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>7022</v>
       </c>
@@ -576,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>14330</v>
       </c>
@@ -596,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>3190</v>
       </c>
@@ -616,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>15574</v>
       </c>
@@ -636,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>8953</v>
       </c>
@@ -656,7 +718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>18632</v>
       </c>
@@ -676,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>17342</v>
       </c>
@@ -696,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>2503</v>
       </c>
@@ -716,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>6927</v>
       </c>
@@ -736,74 +798,504 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="2">
+        <v>10298</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5570</v>
+      </c>
+      <c r="C16" s="3">
+        <v>113.59051666666601</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43.767536111111099</v>
+      </c>
+      <c r="E16" s="2">
+        <v>139</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="2">
+        <v>10852</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5255</v>
+      </c>
+      <c r="C17" s="3">
+        <v>131.58461388888799</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43.759316666666599</v>
+      </c>
+      <c r="E17" s="2">
+        <v>135</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="2">
+        <v>10575</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5403</v>
+      </c>
+      <c r="C18" s="3">
+        <v>131.587308333333</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43.763447222222197</v>
+      </c>
+      <c r="E18" s="2">
+        <v>136</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="2">
+        <v>10538</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5065</v>
+      </c>
+      <c r="C19" s="3">
+        <v>131.58064999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43.763811111111103</v>
+      </c>
+      <c r="E19" s="2">
+        <v>151</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="2">
+        <v>14978</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7331</v>
+      </c>
+      <c r="C20" s="3">
+        <v>131.625361111111</v>
+      </c>
+      <c r="D20" s="3">
+        <v>43.699375000000003</v>
+      </c>
+      <c r="E20" s="2">
+        <v>169</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="2">
+        <v>14605</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7422</v>
+      </c>
+      <c r="C21" s="3">
+        <v>131.62676944444399</v>
+      </c>
+      <c r="D21" s="3">
+        <v>43.710102777777699</v>
+      </c>
+      <c r="E21" s="2">
+        <v>137</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="2">
+        <v>15261</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8032</v>
+      </c>
+      <c r="C22" s="3">
+        <v>131.63916111111101</v>
+      </c>
+      <c r="D22" s="3">
+        <v>43.695480555555498</v>
+      </c>
+      <c r="E22" s="2">
+        <v>180</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="2">
+        <v>15142</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>131.697177777777</v>
+      </c>
+      <c r="D23" s="3">
+        <v>43.697177777777704</v>
+      </c>
+      <c r="E23" s="2">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15">
+      <c r="A24" s="2">
+        <v>17038</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10571</v>
+      </c>
+      <c r="C24" s="3">
+        <v>131.689297222222</v>
+      </c>
+      <c r="D24" s="3">
+        <v>43.669577777777697</v>
+      </c>
+      <c r="E24" s="2">
+        <v>87</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" s="2">
+        <v>17810</v>
+      </c>
+      <c r="B25" s="2">
+        <v>11050</v>
+      </c>
+      <c r="C25" s="3">
+        <v>131.699291666666</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43.658374999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>206</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="2">
+        <v>17529</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10832</v>
+      </c>
+      <c r="C26" s="3">
+        <v>131.694822222222</v>
+      </c>
+      <c r="D26" s="3">
+        <v>43.662461111111099</v>
+      </c>
+      <c r="E26" s="2">
+        <v>210</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="2">
+        <v>17190</v>
+      </c>
+      <c r="B27" s="2">
+        <v>11453</v>
+      </c>
+      <c r="C27" s="3">
+        <v>131.70731944444401</v>
+      </c>
+      <c r="D27" s="3">
+        <v>43.667400000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>192</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28" s="2">
+        <v>16949</v>
+      </c>
+      <c r="B28" s="2">
+        <v>11365</v>
+      </c>
+      <c r="C28" s="3">
+        <v>131.70535277777699</v>
+      </c>
+      <c r="D28" s="3">
+        <v>43.671061111111101</v>
+      </c>
+      <c r="E28" s="2">
+        <v>190</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="2">
+        <v>18468</v>
+      </c>
+      <c r="B29" s="2">
+        <v>18141</v>
+      </c>
+      <c r="C29" s="3">
+        <v>131.83886666666601</v>
+      </c>
+      <c r="D29" s="3">
+        <v>43.648877777777699</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15">
+      <c r="A30" s="2">
+        <v>19858</v>
+      </c>
+      <c r="B30" s="2">
+        <v>17155</v>
+      </c>
+      <c r="C30" s="3">
+        <v>131.81954722222201</v>
+      </c>
+      <c r="D30" s="3">
+        <v>43.628880555555497</v>
+      </c>
+      <c r="E30" s="2">
+        <v>28</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="2">
+        <v>21878</v>
+      </c>
+      <c r="B31" s="2">
+        <v>674</v>
+      </c>
+      <c r="C31" s="3">
+        <v>131.49526944444401</v>
+      </c>
+      <c r="D31" s="3">
+        <v>43.599550000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>202</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15">
+      <c r="A32" s="2">
+        <v>20981</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1977</v>
+      </c>
+      <c r="C32" s="3">
+        <v>131.520930555555</v>
+      </c>
+      <c r="D32" s="3">
+        <v>43.612400000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>174</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15">
+      <c r="A33" s="2">
+        <v>21270</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3143</v>
+      </c>
+      <c r="C33" s="3">
+        <v>131.5421</v>
+      </c>
+      <c r="D33" s="3">
+        <v>43.608305555555503</v>
+      </c>
+      <c r="E33" s="2">
+        <v>190</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15">
+      <c r="A34" s="2">
+        <v>22532</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5800</v>
+      </c>
+      <c r="C34" s="3">
+        <v>131.59703055555499</v>
+      </c>
+      <c r="D34" s="3">
+        <v>43.590533333333298</v>
+      </c>
+      <c r="E34" s="2">
+        <v>300</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15">
+      <c r="A35" s="2">
+        <v>22557</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7362</v>
+      </c>
+      <c r="C35" s="3">
+        <v>131.625827777777</v>
+      </c>
+      <c r="D35" s="3">
+        <v>43.5893916666666</v>
+      </c>
+      <c r="E35" s="2">
+        <v>157</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15">
+      <c r="A36" s="2">
+        <v>22247</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8613</v>
+      </c>
+      <c r="C36" s="3">
+        <v>131.65118333333299</v>
+      </c>
+      <c r="D36" s="3">
+        <v>43.5942694444444</v>
+      </c>
+      <c r="E36" s="2">
+        <v>160</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15">
+      <c r="A37" s="2">
+        <v>21385</v>
+      </c>
+      <c r="B37" s="2">
+        <v>13326</v>
+      </c>
+      <c r="C37" s="3">
+        <v>131.74397777777699</v>
+      </c>
+      <c r="D37" s="3">
+        <v>43.6069888888888</v>
+      </c>
+      <c r="E37" s="2">
+        <v>101</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15">
+      <c r="A38" s="2">
+        <v>19594</v>
+      </c>
+      <c r="B38" s="2">
+        <v>15777</v>
+      </c>
+      <c r="C38" s="3">
+        <v>131.792294444444</v>
+      </c>
+      <c r="D38" s="3">
+        <v>43.6326638888888</v>
+      </c>
+      <c r="E38" s="2">
+        <v>48</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15">
+      <c r="A39" s="2">
+        <v>21648</v>
+      </c>
+      <c r="B39" s="2">
+        <v>18376</v>
+      </c>
+      <c r="C39" s="3">
+        <v>131.84259166666601</v>
+      </c>
+      <c r="D39" s="3">
+        <v>43.603294444444401</v>
+      </c>
+      <c r="E39" s="2">
+        <v>102</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15">
+      <c r="A40" s="2">
+        <v>20941</v>
+      </c>
+      <c r="B40" s="2">
+        <v>18362</v>
+      </c>
+      <c r="C40" s="3">
+        <v>131.843047222222</v>
+      </c>
+      <c r="D40" s="3">
+        <v>43.613422222222198</v>
+      </c>
+      <c r="E40" s="2">
+        <v>133</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/GCP2.xlsx
+++ b/data/GCP2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Document\MATLAB\bias_compensation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CD2B2-4DBD-4642-9F71-103B645C8EDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613B1B3B-F1B0-4273-8CBB-FB1E337B804B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>GCP2_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,9 +73,6 @@
     <t>GCP2_12</t>
   </si>
   <si>
-    <t>GCP2_13</t>
-  </si>
-  <si>
     <t>GCP2_14</t>
   </si>
   <si>
@@ -88,15 +85,9 @@
     <t>GCP2_17</t>
   </si>
   <si>
-    <t>GCP2_18</t>
-  </si>
-  <si>
     <t>GCP2_19</t>
   </si>
   <si>
-    <t>GCP2_20</t>
-  </si>
-  <si>
     <t>GCP2_21</t>
   </si>
   <si>
@@ -118,18 +109,9 @@
     <t>GCP2_27</t>
   </si>
   <si>
-    <t>GCP2_28</t>
-  </si>
-  <si>
-    <t>GCP2_29</t>
-  </si>
-  <si>
     <t>GCP2_30</t>
   </si>
   <si>
-    <t>GCP2_31</t>
-  </si>
-  <si>
     <t>GCP2_32</t>
   </si>
   <si>
@@ -146,6 +128,21 @@
   </si>
   <si>
     <t>GCP2_37</t>
+  </si>
+  <si>
+    <t>GCP2_38</t>
+  </si>
+  <si>
+    <t>GCP2_39</t>
+  </si>
+  <si>
+    <t>GCP2_40</t>
+  </si>
+  <si>
+    <t>GCP2_41</t>
+  </si>
+  <si>
+    <t>GCP2_42</t>
   </si>
 </sst>
 </file>
@@ -492,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -800,19 +797,19 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="2">
-        <v>10298</v>
+        <v>10852</v>
       </c>
       <c r="B16" s="2">
-        <v>5570</v>
+        <v>5255</v>
       </c>
       <c r="C16" s="3">
-        <v>113.59051666666601</v>
+        <v>131.58461388888799</v>
       </c>
       <c r="D16" s="3">
-        <v>43.767536111111099</v>
+        <v>43.759316666666599</v>
       </c>
       <c r="E16" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
@@ -820,19 +817,19 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="2">
-        <v>10852</v>
+        <v>10575</v>
       </c>
       <c r="B17" s="2">
-        <v>5255</v>
+        <v>5403</v>
       </c>
       <c r="C17" s="3">
-        <v>131.58461388888799</v>
+        <v>131.587308333333</v>
       </c>
       <c r="D17" s="3">
-        <v>43.759316666666599</v>
+        <v>43.763447222222197</v>
       </c>
       <c r="E17" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
@@ -840,19 +837,19 @@
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" s="2">
-        <v>10575</v>
+        <v>10538</v>
       </c>
       <c r="B18" s="2">
-        <v>5403</v>
+        <v>5065</v>
       </c>
       <c r="C18" s="3">
-        <v>131.587308333333</v>
+        <v>131.58064999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>43.763447222222197</v>
+        <v>43.763811111111103</v>
       </c>
       <c r="E18" s="2">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -860,19 +857,19 @@
     </row>
     <row r="19" spans="1:6" ht="15">
       <c r="A19" s="2">
-        <v>10538</v>
+        <v>14978</v>
       </c>
       <c r="B19" s="2">
-        <v>5065</v>
+        <v>7331</v>
       </c>
       <c r="C19" s="3">
-        <v>131.58064999999999</v>
+        <v>131.625361111111</v>
       </c>
       <c r="D19" s="3">
-        <v>43.763811111111103</v>
+        <v>43.699375000000003</v>
       </c>
       <c r="E19" s="2">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -880,19 +877,19 @@
     </row>
     <row r="20" spans="1:6" ht="15">
       <c r="A20" s="2">
-        <v>14978</v>
+        <v>15261</v>
       </c>
       <c r="B20" s="2">
-        <v>7331</v>
+        <v>8032</v>
       </c>
       <c r="C20" s="3">
-        <v>131.625361111111</v>
+        <v>131.63916111111101</v>
       </c>
       <c r="D20" s="3">
-        <v>43.699375000000003</v>
+        <v>43.695480555555498</v>
       </c>
       <c r="E20" s="2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
@@ -900,19 +897,19 @@
     </row>
     <row r="21" spans="1:6" ht="15">
       <c r="A21" s="2">
-        <v>14605</v>
+        <v>17038</v>
       </c>
       <c r="B21" s="2">
-        <v>7422</v>
+        <v>10571</v>
       </c>
       <c r="C21" s="3">
-        <v>131.62676944444399</v>
+        <v>131.689297222222</v>
       </c>
       <c r="D21" s="3">
-        <v>43.710102777777699</v>
+        <v>43.669577777777697</v>
       </c>
       <c r="E21" s="2">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>17</v>
@@ -920,19 +917,19 @@
     </row>
     <row r="22" spans="1:6" ht="15">
       <c r="A22" s="2">
-        <v>15261</v>
+        <v>17810</v>
       </c>
       <c r="B22" s="2">
-        <v>8032</v>
+        <v>11050</v>
       </c>
       <c r="C22" s="3">
-        <v>131.63916111111101</v>
+        <v>131.699291666666</v>
       </c>
       <c r="D22" s="3">
-        <v>43.695480555555498</v>
+        <v>43.658374999999999</v>
       </c>
       <c r="E22" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
@@ -940,19 +937,19 @@
     </row>
     <row r="23" spans="1:6" ht="15">
       <c r="A23" s="2">
-        <v>15142</v>
+        <v>17529</v>
       </c>
       <c r="B23" s="2">
-        <v>10001</v>
+        <v>10832</v>
       </c>
       <c r="C23" s="3">
-        <v>131.697177777777</v>
+        <v>131.694822222222</v>
       </c>
       <c r="D23" s="3">
-        <v>43.697177777777704</v>
+        <v>43.662461111111099</v>
       </c>
       <c r="E23" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>19</v>
@@ -960,19 +957,19 @@
     </row>
     <row r="24" spans="1:6" ht="15">
       <c r="A24" s="2">
-        <v>17038</v>
+        <v>17190</v>
       </c>
       <c r="B24" s="2">
-        <v>10571</v>
+        <v>11453</v>
       </c>
       <c r="C24" s="3">
-        <v>131.689297222222</v>
+        <v>131.70731944444401</v>
       </c>
       <c r="D24" s="3">
-        <v>43.669577777777697</v>
+        <v>43.667400000000001</v>
       </c>
       <c r="E24" s="2">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
@@ -980,19 +977,19 @@
     </row>
     <row r="25" spans="1:6" ht="15">
       <c r="A25" s="2">
-        <v>17810</v>
+        <v>16949</v>
       </c>
       <c r="B25" s="2">
-        <v>11050</v>
+        <v>11365</v>
       </c>
       <c r="C25" s="3">
-        <v>131.699291666666</v>
+        <v>131.70535277777699</v>
       </c>
       <c r="D25" s="3">
-        <v>43.658374999999999</v>
+        <v>43.671061111111101</v>
       </c>
       <c r="E25" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>21</v>
@@ -1000,19 +997,19 @@
     </row>
     <row r="26" spans="1:6" ht="15">
       <c r="A26" s="2">
-        <v>17529</v>
+        <v>18468</v>
       </c>
       <c r="B26" s="2">
-        <v>10832</v>
+        <v>18141</v>
       </c>
       <c r="C26" s="3">
-        <v>131.694822222222</v>
+        <v>131.83886666666601</v>
       </c>
       <c r="D26" s="3">
-        <v>43.662461111111099</v>
+        <v>43.648877777777699</v>
       </c>
       <c r="E26" s="2">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>22</v>
@@ -1020,19 +1017,19 @@
     </row>
     <row r="27" spans="1:6" ht="15">
       <c r="A27" s="2">
-        <v>17190</v>
+        <v>19858</v>
       </c>
       <c r="B27" s="2">
-        <v>11453</v>
+        <v>17155</v>
       </c>
       <c r="C27" s="3">
-        <v>131.70731944444401</v>
+        <v>131.81954722222201</v>
       </c>
       <c r="D27" s="3">
-        <v>43.667400000000001</v>
+        <v>43.628880555555497</v>
       </c>
       <c r="E27" s="2">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>23</v>
@@ -1040,16 +1037,16 @@
     </row>
     <row r="28" spans="1:6" ht="15">
       <c r="A28" s="2">
-        <v>16949</v>
+        <v>21270</v>
       </c>
       <c r="B28" s="2">
-        <v>11365</v>
+        <v>3143</v>
       </c>
       <c r="C28" s="3">
-        <v>131.70535277777699</v>
+        <v>131.5421</v>
       </c>
       <c r="D28" s="3">
-        <v>43.671061111111101</v>
+        <v>43.608305555555503</v>
       </c>
       <c r="E28" s="2">
         <v>190</v>
@@ -1060,19 +1057,19 @@
     </row>
     <row r="29" spans="1:6" ht="15">
       <c r="A29" s="2">
-        <v>18468</v>
+        <v>22557</v>
       </c>
       <c r="B29" s="2">
-        <v>18141</v>
+        <v>7362</v>
       </c>
       <c r="C29" s="3">
-        <v>131.83886666666601</v>
+        <v>131.625827777777</v>
       </c>
       <c r="D29" s="3">
-        <v>43.648877777777699</v>
+        <v>43.5893916666666</v>
       </c>
       <c r="E29" s="2">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
@@ -1080,19 +1077,19 @@
     </row>
     <row r="30" spans="1:6" ht="15">
       <c r="A30" s="2">
-        <v>19858</v>
+        <v>22247</v>
       </c>
       <c r="B30" s="2">
-        <v>17155</v>
+        <v>8613</v>
       </c>
       <c r="C30" s="3">
-        <v>131.81954722222201</v>
+        <v>131.65118333333299</v>
       </c>
       <c r="D30" s="3">
-        <v>43.628880555555497</v>
+        <v>43.5942694444444</v>
       </c>
       <c r="E30" s="2">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>26</v>
@@ -1100,19 +1097,19 @@
     </row>
     <row r="31" spans="1:6" ht="15">
       <c r="A31" s="2">
-        <v>21878</v>
+        <v>21385</v>
       </c>
       <c r="B31" s="2">
-        <v>674</v>
+        <v>13326</v>
       </c>
       <c r="C31" s="3">
-        <v>131.49526944444401</v>
+        <v>131.74397777777699</v>
       </c>
       <c r="D31" s="3">
-        <v>43.599550000000001</v>
+        <v>43.6069888888888</v>
       </c>
       <c r="E31" s="2">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>27</v>
@@ -1120,19 +1117,19 @@
     </row>
     <row r="32" spans="1:6" ht="15">
       <c r="A32" s="2">
-        <v>20981</v>
+        <v>19594</v>
       </c>
       <c r="B32" s="2">
-        <v>1977</v>
+        <v>15777</v>
       </c>
       <c r="C32" s="3">
-        <v>131.520930555555</v>
+        <v>131.792294444444</v>
       </c>
       <c r="D32" s="3">
-        <v>43.612400000000001</v>
+        <v>43.6326638888888</v>
       </c>
       <c r="E32" s="2">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>28</v>
@@ -1140,19 +1137,19 @@
     </row>
     <row r="33" spans="1:6" ht="15">
       <c r="A33" s="2">
-        <v>21270</v>
+        <v>21648</v>
       </c>
       <c r="B33" s="2">
-        <v>3143</v>
+        <v>18376</v>
       </c>
       <c r="C33" s="3">
-        <v>131.5421</v>
+        <v>131.84259166666601</v>
       </c>
       <c r="D33" s="3">
-        <v>43.608305555555503</v>
+        <v>43.603294444444401</v>
       </c>
       <c r="E33" s="2">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>29</v>
@@ -1160,19 +1157,19 @@
     </row>
     <row r="34" spans="1:6" ht="15">
       <c r="A34" s="2">
-        <v>22532</v>
+        <v>20941</v>
       </c>
       <c r="B34" s="2">
-        <v>5800</v>
+        <v>18362</v>
       </c>
       <c r="C34" s="3">
-        <v>131.59703055555499</v>
+        <v>131.843047222222</v>
       </c>
       <c r="D34" s="3">
-        <v>43.590533333333298</v>
+        <v>43.613422222222198</v>
       </c>
       <c r="E34" s="2">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>30</v>
@@ -1180,19 +1177,19 @@
     </row>
     <row r="35" spans="1:6" ht="15">
       <c r="A35" s="2">
-        <v>22557</v>
+        <v>473</v>
       </c>
       <c r="B35" s="2">
-        <v>7362</v>
+        <v>17853</v>
       </c>
       <c r="C35" s="3">
-        <v>131.625827777777</v>
+        <v>131.833494444444</v>
       </c>
       <c r="D35" s="3">
-        <v>43.5893916666666</v>
+        <v>43.911366666666602</v>
       </c>
       <c r="E35" s="2">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>31</v>
@@ -1200,19 +1197,19 @@
     </row>
     <row r="36" spans="1:6" ht="15">
       <c r="A36" s="2">
-        <v>22247</v>
+        <v>639</v>
       </c>
       <c r="B36" s="2">
-        <v>8613</v>
+        <v>433</v>
       </c>
       <c r="C36" s="3">
-        <v>131.65118333333299</v>
+        <v>131.488575</v>
       </c>
       <c r="D36" s="3">
-        <v>43.5942694444444</v>
+        <v>43.907944444444396</v>
       </c>
       <c r="E36" s="2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>32</v>
@@ -1220,19 +1217,19 @@
     </row>
     <row r="37" spans="1:6" ht="15">
       <c r="A37" s="2">
-        <v>21385</v>
+        <v>205</v>
       </c>
       <c r="B37" s="2">
-        <v>13326</v>
+        <v>298</v>
       </c>
       <c r="C37" s="3">
-        <v>131.74397777777699</v>
+        <v>131.48559166666601</v>
       </c>
       <c r="D37" s="3">
-        <v>43.6069888888888</v>
+        <v>43.914211111111101</v>
       </c>
       <c r="E37" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>33</v>
@@ -1240,19 +1237,19 @@
     </row>
     <row r="38" spans="1:6" ht="15">
       <c r="A38" s="2">
-        <v>19594</v>
+        <v>1083</v>
       </c>
       <c r="B38" s="2">
-        <v>15777</v>
+        <v>290</v>
       </c>
       <c r="C38" s="3">
-        <v>131.792294444444</v>
+        <v>131.485802777777</v>
       </c>
       <c r="D38" s="3">
-        <v>43.6326638888888</v>
+        <v>43.901469444444402</v>
       </c>
       <c r="E38" s="2">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>34</v>
@@ -1260,42 +1257,22 @@
     </row>
     <row r="39" spans="1:6" ht="15">
       <c r="A39" s="2">
-        <v>21648</v>
+        <v>2322</v>
       </c>
       <c r="B39" s="2">
-        <v>18376</v>
+        <v>143</v>
       </c>
       <c r="C39" s="3">
-        <v>131.84259166666601</v>
+        <v>131.48338055555499</v>
       </c>
       <c r="D39" s="3">
-        <v>43.603294444444401</v>
+        <v>43.883247222222202</v>
       </c>
       <c r="E39" s="2">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="2">
-        <v>20941</v>
-      </c>
-      <c r="B40" s="2">
-        <v>18362</v>
-      </c>
-      <c r="C40" s="3">
-        <v>131.843047222222</v>
-      </c>
-      <c r="D40" s="3">
-        <v>43.613422222222198</v>
-      </c>
-      <c r="E40" s="2">
-        <v>133</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/GCP2.xlsx
+++ b/data/GCP2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Document\MATLAB\bias_compensation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zkyfile\matlab_program\bias_compensation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613B1B3B-F1B0-4273-8CBB-FB1E337B804B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAAAD06-69C6-4EC5-B3EB-B14EDB194EAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>GCP2_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GCP2_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GCP2_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GCP2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>GCP2_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,98 +35,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GCP2_11</t>
+  </si>
+  <si>
+    <t>GCP2_12</t>
+  </si>
+  <si>
+    <t>GCP2_14</t>
+  </si>
+  <si>
+    <t>GCP2_15</t>
+  </si>
+  <si>
+    <t>GCP2_16</t>
+  </si>
+  <si>
+    <t>GCP2_17</t>
+  </si>
+  <si>
+    <t>GCP2_19</t>
+  </si>
+  <si>
+    <t>GCP2_21</t>
+  </si>
+  <si>
+    <t>GCP2_22</t>
+  </si>
+  <si>
+    <t>GCP2_23</t>
+  </si>
+  <si>
+    <t>GCP2_24</t>
+  </si>
+  <si>
+    <t>GCP2_25</t>
+  </si>
+  <si>
+    <t>GCP2_26</t>
+  </si>
+  <si>
+    <t>GCP2_27</t>
+  </si>
+  <si>
+    <t>GCP2_30</t>
+  </si>
+  <si>
+    <t>GCP2_32</t>
+  </si>
+  <si>
+    <t>GCP2_33</t>
+  </si>
+  <si>
+    <t>GCP2_34</t>
+  </si>
+  <si>
+    <t>GCP2_35</t>
+  </si>
+  <si>
+    <t>GCP2_36</t>
+  </si>
+  <si>
+    <t>GCP2_37</t>
+  </si>
+  <si>
+    <t>GCP2_38</t>
+  </si>
+  <si>
+    <t>GCP2_39</t>
+  </si>
+  <si>
+    <t>GCP2_40</t>
+  </si>
+  <si>
+    <t>GCP2_41</t>
+  </si>
+  <si>
+    <t>GCP2_42</t>
+  </si>
+  <si>
+    <t>GCP2_43</t>
+  </si>
+  <si>
+    <t>GCP2_44</t>
+  </si>
+  <si>
+    <t>GCP2_3</t>
+  </si>
+  <si>
+    <t>GCP2_4</t>
+  </si>
+  <si>
+    <t>GCP2_5</t>
+  </si>
+  <si>
+    <t>GCP2_6</t>
+  </si>
+  <si>
     <t>GCP2_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GCP2_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GCP2_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GCP2_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GCP2_11</t>
-  </si>
-  <si>
-    <t>GCP2_12</t>
-  </si>
-  <si>
-    <t>GCP2_14</t>
-  </si>
-  <si>
-    <t>GCP2_15</t>
-  </si>
-  <si>
-    <t>GCP2_16</t>
-  </si>
-  <si>
-    <t>GCP2_17</t>
-  </si>
-  <si>
-    <t>GCP2_19</t>
-  </si>
-  <si>
-    <t>GCP2_21</t>
-  </si>
-  <si>
-    <t>GCP2_22</t>
-  </si>
-  <si>
-    <t>GCP2_23</t>
-  </si>
-  <si>
-    <t>GCP2_24</t>
-  </si>
-  <si>
-    <t>GCP2_25</t>
-  </si>
-  <si>
-    <t>GCP2_26</t>
-  </si>
-  <si>
-    <t>GCP2_27</t>
-  </si>
-  <si>
-    <t>GCP2_30</t>
-  </si>
-  <si>
-    <t>GCP2_32</t>
-  </si>
-  <si>
-    <t>GCP2_33</t>
-  </si>
-  <si>
-    <t>GCP2_34</t>
-  </si>
-  <si>
-    <t>GCP2_35</t>
-  </si>
-  <si>
-    <t>GCP2_36</t>
-  </si>
-  <si>
-    <t>GCP2_37</t>
-  </si>
-  <si>
-    <t>GCP2_38</t>
-  </si>
-  <si>
-    <t>GCP2_39</t>
-  </si>
-  <si>
-    <t>GCP2_40</t>
-  </si>
-  <si>
-    <t>GCP2_41</t>
-  </si>
-  <si>
-    <t>GCP2_42</t>
+  </si>
+  <si>
+    <t>GCP2_13</t>
+  </si>
+  <si>
+    <t>GCP2_18</t>
+  </si>
+  <si>
+    <t>GCP2_20</t>
+  </si>
+  <si>
+    <t>GCP2_28</t>
+  </si>
+  <si>
+    <t>GCP2_29</t>
+  </si>
+  <si>
+    <t>GCP2_31</t>
   </si>
 </sst>
 </file>
@@ -489,16 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" customWidth="1"/>
+    <col min="4" max="4" width="13.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -517,7 +533,9 @@
       <c r="E1" s="2">
         <v>125</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
@@ -535,7 +553,9 @@
       <c r="E2" s="2">
         <v>130</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
@@ -553,7 +573,9 @@
       <c r="E3" s="2">
         <v>120</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
@@ -572,7 +594,7 @@
         <v>165</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -592,7 +614,7 @@
         <v>69</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -612,7 +634,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -632,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -652,7 +674,7 @@
         <v>223</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -672,7 +694,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -692,7 +714,7 @@
         <v>256</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -712,7 +734,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -732,7 +754,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -752,7 +774,7 @@
         <v>102</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -772,7 +794,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -792,7 +814,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
@@ -812,7 +834,7 @@
         <v>135</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
@@ -832,7 +854,7 @@
         <v>136</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
@@ -852,7 +874,7 @@
         <v>151</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
@@ -872,7 +894,7 @@
         <v>169</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15">
@@ -892,7 +914,7 @@
         <v>180</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
@@ -912,7 +934,7 @@
         <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15">
@@ -932,7 +954,7 @@
         <v>206</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
@@ -952,7 +974,7 @@
         <v>210</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15">
@@ -972,7 +994,7 @@
         <v>192</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15">
@@ -992,7 +1014,7 @@
         <v>190</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15">
@@ -1012,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15">
@@ -1032,7 +1054,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15">
@@ -1052,7 +1074,7 @@
         <v>190</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15">
@@ -1072,7 +1094,7 @@
         <v>157</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15">
@@ -1092,7 +1114,7 @@
         <v>160</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15">
@@ -1112,7 +1134,7 @@
         <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15">
@@ -1132,7 +1154,7 @@
         <v>48</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15">
@@ -1152,7 +1174,7 @@
         <v>102</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15">
@@ -1172,7 +1194,7 @@
         <v>133</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15">
@@ -1192,7 +1214,7 @@
         <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15">
@@ -1212,7 +1234,7 @@
         <v>170</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15">
@@ -1232,47 +1254,147 @@
         <v>140</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>1083</v>
       </c>
       <c r="B38" s="2">
         <v>290</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>131.485802777777</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>43.901469444444402</v>
       </c>
       <c r="E38" s="2">
         <v>141</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>2322</v>
       </c>
       <c r="B39" s="2">
         <v>143</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>131.48338055555499</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>43.883247222222202</v>
       </c>
       <c r="E39" s="2">
         <v>145</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>10075.5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>12187.5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>131.72134600000001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43.771320000000003</v>
+      </c>
+      <c r="E40" s="2">
+        <v>33</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>12827.2168</v>
+      </c>
+      <c r="B41" s="2">
+        <v>11047.834999999999</v>
+      </c>
+      <c r="C41" s="2">
+        <v>131.698973</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43.731361</v>
+      </c>
+      <c r="E41" s="2">
+        <v>56</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>20421.3848</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7784.4106000000002</v>
+      </c>
+      <c r="C42" s="2">
+        <v>131.634896</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43.621116000000001</v>
+      </c>
+      <c r="E42" s="2">
+        <v>169</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>1696.3202000000001</v>
+      </c>
+      <c r="B43" s="2">
+        <v>17236.695299999999</v>
+      </c>
+      <c r="C43" s="2">
+        <v>131.82090299999999</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43.893253000000001</v>
+      </c>
+      <c r="E43" s="2">
+        <v>33</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>7676.6548000000003</v>
+      </c>
+      <c r="B44" s="2">
+        <v>13099.541999999999</v>
+      </c>
+      <c r="C44" s="2">
+        <v>131.73929100000001</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43.806204999999999</v>
+      </c>
+      <c r="E44" s="2">
+        <v>28</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
